--- a/medicine/Psychotrope/Viticulture_en_Croatie/Viticulture_en_Croatie.xlsx
+++ b/medicine/Psychotrope/Viticulture_en_Croatie/Viticulture_en_Croatie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La viticulture en Croatie place ce pays au 21e rang mondial des pays producteurs de vin. Actuellement, il y a plus de 300 régions viticoles classées pour assurer la qualité et l'origine. La majorité des vins croates sont blancs, avec quelques vins rouges et un faible pourcentage de vins rosés. 
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La viticulture remonte à l'âge du Bronze : des découvertes récentes le démontrent, les Illyriens cultivaient déjà la vigne. 
 Lors de la colonisation par la Grèce antique, voilà 2500 ans, la fondation des premiers comptoirs grecs développe la production de vin sur les îles de Vis, Hvar, Korčula, au sud de la Dalmatie. 
-Avec l'arrivée des Romains, la vigne prend une nouvelle extension dans toute la Dalmatie[1]. 
+Avec l'arrivée des Romains, la vigne prend une nouvelle extension dans toute la Dalmatie. 
 Au moins un sarcophage de Solana témoigne de l'intérêt que portait son occupant au vignoble.
 À la fin du Moyen Âge, les villes libres prennent des dispositions statutaires pour protéger leurs vignobles. 
 Lors de l'appartenance de la Croatie à l'Empire austro-hongrois, au cours du XIXe siècle, la production de vin est rendue plus difficile par une « clause du vin » privilégiant l'importation italienne. 
@@ -549,17 +563,18 @@
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>De nombreux cépages traditionnels anciens survivent encore en Croatie, parfaitement adaptés à leur terroir viticole. 
-Les méthodes de vinification modernes se multiplient dans les caves, et les règlements de l'Union européenne ont été adoptés, permettant de garantir la qualité et le style de vin de terroir[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux cépages traditionnels anciens survivent encore en Croatie, parfaitement adaptés à leur terroir viticole. 
+Les méthodes de vinification modernes se multiplient dans les caves, et les règlements de l'Union européenne ont été adoptés, permettant de garantir la qualité et le style de vin de terroir.
 			Vranac
 			Muscat jaune
 			Hautain à Dubrovnik
 			Kardinal
 			Plavac mali
-Cépages rouges
-Cépages blancs</t>
+</t>
         </is>
       </c>
     </row>
@@ -587,7 +602,9 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vin et gastronomie
